--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41652.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41652.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>52.85</v>
+        <v>5.29</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41652.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q4" s="4" t="n">
+      <c r="AA4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF4" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>5.05</v>
-      </c>
       <c r="AG4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41652.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.84</v>
+        <v>3.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>150.39</v>
+        <v>15.04</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.64</v>
+        <v>2.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.34</v>
+        <v>1.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.16</v>
+        <v>3.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41652.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.75</v>
+        <v>1.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.28</v>
+        <v>3.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.94</v>
+        <v>2.79</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>46.85</v>
+        <v>4.69</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>179.09</v>
+        <v>17.91</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.13</v>
+        <v>3.41</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>23.09</v>
+        <v>2.31</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>42.53</v>
+        <v>4.25</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41652.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>43.45</v>
+        <v>4.34</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>35.57</v>
+        <v>3.56</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.24</v>
+        <v>6.02</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.78</v>
+        <v>2.38</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.36</v>
+        <v>1.64</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>229.48</v>
+        <v>22.95</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>43.41</v>
+        <v>4.34</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>29.38</v>
+        <v>2.94</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.57</v>
+        <v>2.96</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>54.63</v>
+        <v>5.46</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41652.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>22.31</v>
+        <v>2.23</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>34.46</v>
+        <v>3.45</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>113.91</v>
+        <v>11.39</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>22.31</v>
+        <v>2.23</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>31.41</v>
+        <v>3.14</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41652.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>26.59</v>
+        <v>2.66</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>89.87</v>
+        <v>8.99</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>24.1</v>
+        <v>2.41</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41652.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41652.34027777778</v>
+        <v>44901.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>0.16</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.14</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD2" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41652.34722222222</v>
+        <v>44901.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.16</v>
+        <v>2.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.88</v>
+        <v>2.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.13</v>
+        <v>3.23</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.47</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.17</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.99</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.29</v>
+        <v>14.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.06</v>
+        <v>2.81</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.97</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.72</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.18</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.96</v>
+        <v>2.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41652.35416666666</v>
+        <v>44901.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.16</v>
+        <v>2.1</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.54</v>
+        <v>3.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.98</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.05</v>
+        <v>1.08</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.39</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.51</v>
+        <v>13.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.89</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.29</v>
+        <v>1.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.51</v>
+        <v>3.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41652.36111111111</v>
+        <v>44901.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="W5" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.12</v>
+        <v>4.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41652.36805555555</v>
+        <v>44901.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.57</v>
+        <v>4.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.17</v>
+        <v>3.11</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="n">
+      <c r="S6" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>17.91</v>
+        <v>44.09</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.41</v>
+        <v>9.77</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.13</v>
+        <v>3.26</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.31</v>
+        <v>6.55</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.23</v>
+        <v>3.54</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.72</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.32</v>
+        <v>8.85</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.86</v>
+        <v>2.35</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.02</v>
+        <v>2.97</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.46</v>
+        <v>3.96</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.25</v>
+        <v>17.74</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.66</v>
+        <v>1.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41652.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41652.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41652.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41652.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41652.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.62</v>
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,52 +655,52 @@
         <v>44901.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44901.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.84</v>
+        <v>28.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.24</v>
+        <v>22.36</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.67</v>
+        <v>146.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.81</v>
+        <v>28.13</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.94</v>
+        <v>29.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44901.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.63</v>
+        <v>36.34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.55</v>
+        <v>135.49</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.18</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.34</v>
+        <v>33.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44901.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.98</v>
+        <v>39.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.45</v>
+        <v>54.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21</v>
+        <v>209.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.7</v>
+        <v>26.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.96</v>
+        <v>49.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,97 +658,97 @@
         <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.45</v>
@@ -759,103 +759,103 @@
         <v>44901.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.64</v>
+        <v>12.643</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.401</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.37</v>
+        <v>28.374</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.36</v>
+        <v>22.355</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.05</v>
+        <v>10.053</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.34</v>
+        <v>32.335</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>15.3</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.88</v>
+        <v>6.882</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.57</v>
+        <v>10.574</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.687</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.688</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.25</v>
+        <v>3.251</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.26</v>
+        <v>15.264</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.985</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.74</v>
+        <v>146.737</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.13</v>
+        <v>28.133</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.71</v>
+        <v>18.707</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.33</v>
+        <v>10.335</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.06</v>
+        <v>2.061</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.18</v>
+        <v>17.181</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.224</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.12</v>
+        <v>7.119</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.792</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>11.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.37</v>
+        <v>29.368</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.019</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.06</v>
+        <v>12.061</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44901.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.79</v>
+        <v>11.791</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.2</v>
+        <v>26.198</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.96</v>
+        <v>20.955</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.378</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.34</v>
+        <v>36.341</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>14.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.46</v>
+        <v>6.461</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.788</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.9</v>
+        <v>10.896</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.02</v>
+        <v>3.017</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.211</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.95</v>
+        <v>13.948</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.47</v>
+        <v>7.475</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.182</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>135.49</v>
+        <v>135.486</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.28</v>
+        <v>26.284</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.9</v>
+        <v>8.903</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.58</v>
+        <v>17.582</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.18</v>
+        <v>18.182</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.64</v>
+        <v>7.641</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.622</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.09</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11</v>
+        <v>11.002</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.41</v>
+        <v>33.408</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.73</v>
+        <v>4.729</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.07</v>
+        <v>11.075</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44901.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,13 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -458,18 +458,18 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>44901.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.09</v>
+        <v>18.091</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.55</v>
+        <v>13.547</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.75</v>
+        <v>39.754</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>32.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.324</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.51</v>
+        <v>54.507</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.92</v>
+        <v>21.922</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.885999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.85</v>
+        <v>14.855</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.16</v>
+        <v>16.158</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.71</v>
+        <v>16.711</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.587</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.8</v>
+        <v>20.798</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.59</v>
+        <v>11.586</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.95</v>
+        <v>209.951</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.36</v>
+        <v>13.356</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.88</v>
+        <v>26.876</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.35</v>
+        <v>14.353</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.97</v>
+        <v>26.968</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.64</v>
+        <v>11.636</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.13</v>
+        <v>10.135</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>12.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.74</v>
+        <v>16.744</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.65</v>
+        <v>49.649</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.66</v>
+        <v>16.656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44901.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_220.xlsx
+++ b/DATA_goal/Junction_Flooding_220.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,13 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
@@ -458,18 +458,18 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>44901.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.091</v>
+        <v>18.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.547</v>
+        <v>13.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.676</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>39.754</v>
+        <v>39.75</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>32.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.324</v>
+        <v>14.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.507</v>
+        <v>54.51</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.922</v>
+        <v>21.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.885999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.855</v>
+        <v>14.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.158</v>
+        <v>16.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.711</v>
+        <v>16.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.587</v>
+        <v>4.59</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>14.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.798</v>
+        <v>20.8</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.586</v>
+        <v>11.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>209.951</v>
+        <v>209.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>39.912</v>
+        <v>39.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.356</v>
+        <v>13.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.876</v>
+        <v>26.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.353</v>
+        <v>14.35</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.968</v>
+        <v>26.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.636</v>
+        <v>11.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.135</v>
+        <v>10.13</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>12.17</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.744</v>
+        <v>16.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.649</v>
+        <v>49.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.656</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44901.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.04</v>
+        <v>16.66</v>
       </c>
     </row>
   </sheetData>
